--- a/Project4761_J. D. Pardo(2017).xlsx
+++ b/Project4761_J. D. Pardo(2017).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3328D3-1D81-4F4C-A97A-4603ED430A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D95463-9D78-43B7-AD78-143709CE3F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E4921926-99A0-6E43-98A0-9E5C22F77220}"/>
+    <workbookView xWindow="16455" yWindow="1170" windowWidth="15945" windowHeight="18375" xr2:uid="{E4921926-99A0-6E43-98A0-9E5C22F77220}"/>
   </bookViews>
   <sheets>
     <sheet name="Project4761" sheetId="1" r:id="rId1"/>
@@ -1273,55 +1273,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33866</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>822958</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>33865</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{957014CF-FAE6-1874-9878-EFA866307C3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10549467" y="321733"/>
-          <a:ext cx="10728958" cy="6705599"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1643,17 +1594,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD5F544-ACA9-CF4E-8705-A02837B091CF}">
   <dimension ref="A1:C371"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>382</v>
       </c>
@@ -1675,7 +1624,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1686,7 +1635,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1697,7 +1646,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1705,7 +1654,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1716,7 +1665,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1727,7 +1676,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1738,7 +1687,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1746,7 +1695,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1757,7 +1706,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1768,7 +1717,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1728,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1790,7 +1739,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1801,7 +1750,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1812,7 +1761,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1823,7 +1772,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1834,7 +1783,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1845,7 +1794,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1856,7 +1805,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1867,7 +1816,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1878,7 +1827,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1889,7 +1838,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1900,7 +1849,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1911,7 +1860,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1922,7 +1871,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1933,7 +1882,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1944,7 +1893,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1955,7 +1904,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1963,7 +1912,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1974,7 +1923,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1985,7 +1934,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1996,7 +1945,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2007,7 +1956,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2018,7 +1967,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2029,7 +1978,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2037,7 +1986,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2048,7 +1997,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2059,7 +2008,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2067,7 +2016,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2078,7 +2027,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2089,7 +2038,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2100,7 +2049,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2111,7 +2060,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2122,7 +2071,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2133,7 +2082,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2141,7 +2090,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2152,7 +2101,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2160,7 +2109,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2171,7 +2120,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2182,7 +2131,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2193,7 +2142,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2204,7 +2153,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2215,7 +2164,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2226,7 +2175,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2237,7 +2186,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2248,7 +2197,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2259,7 +2208,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2270,7 +2219,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2281,7 +2230,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2292,7 +2241,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2303,7 +2252,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2314,7 +2263,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2325,7 +2274,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2336,7 +2285,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2347,7 +2296,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2358,7 +2307,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2369,7 +2318,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2380,7 +2329,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2391,7 +2340,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2402,7 +2351,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2413,7 +2362,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2424,7 +2373,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2435,7 +2384,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2446,7 +2395,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2457,7 +2406,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2468,7 +2417,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2479,7 +2428,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2490,7 +2439,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2498,7 +2447,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2509,7 +2458,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2520,7 +2469,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2531,7 +2480,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2542,7 +2491,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2553,7 +2502,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2564,7 +2513,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2575,7 +2524,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2586,7 +2535,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2597,7 +2546,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2608,7 +2557,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2619,7 +2568,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2627,7 +2576,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2638,7 +2587,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2649,7 +2598,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2660,7 +2609,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2671,7 +2620,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2682,7 +2631,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2693,7 +2642,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2704,7 +2653,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2715,7 +2664,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2726,7 +2675,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2737,7 +2686,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2748,7 +2697,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2759,7 +2708,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2770,7 +2719,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2778,7 +2727,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2789,7 +2738,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2798,7 +2747,7 @@
       </c>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2809,7 +2758,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2820,7 +2769,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2831,7 +2780,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2842,7 +2791,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2853,7 +2802,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2864,7 +2813,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2875,7 +2824,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2886,7 +2835,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2897,7 +2846,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2908,7 +2857,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2919,7 +2868,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2930,7 +2879,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2941,7 +2890,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2952,7 +2901,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2963,7 +2912,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2974,7 +2923,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2985,7 +2934,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2996,7 +2945,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3007,7 +2956,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3018,7 +2967,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3029,7 +2978,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -3040,7 +2989,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3051,7 +3000,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -3062,7 +3011,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3073,7 +3022,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3084,7 +3033,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3092,7 +3041,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3101,7 +3050,7 @@
       </c>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3109,7 +3058,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3120,7 +3069,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3131,7 +3080,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3139,7 +3088,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3150,7 +3099,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -3161,7 +3110,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -3172,7 +3121,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -3183,7 +3132,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -3194,7 +3143,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3205,7 +3154,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -3216,7 +3165,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -3227,7 +3176,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3238,7 +3187,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3249,7 +3198,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -3260,7 +3209,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -3271,7 +3220,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -3282,7 +3231,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -3293,7 +3242,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3304,7 +3253,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -3315,7 +3264,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -3326,7 +3275,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -3337,7 +3286,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -3348,7 +3297,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3359,7 +3308,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3367,7 +3316,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3375,7 +3324,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3383,7 +3332,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3394,7 +3343,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3405,7 +3354,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3416,7 +3365,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3427,7 +3376,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3438,7 +3387,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -3449,7 +3398,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3460,7 +3409,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3471,7 +3420,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3482,7 +3431,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3493,7 +3442,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -3504,7 +3453,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3515,7 +3464,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -3526,7 +3475,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -3537,7 +3486,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3548,7 +3497,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3559,7 +3508,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3570,7 +3519,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3581,7 +3530,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3592,7 +3541,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3603,7 +3552,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3614,7 +3563,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3625,7 +3574,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3636,7 +3585,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3647,7 +3596,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3658,7 +3607,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3669,7 +3618,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3680,7 +3629,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3691,7 +3640,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3702,7 +3651,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3713,7 +3662,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3724,7 +3673,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3735,7 +3684,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3746,7 +3695,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3754,7 +3703,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3765,7 +3714,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3776,7 +3725,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3787,7 +3736,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3798,7 +3747,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3809,7 +3758,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3820,7 +3769,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3831,7 +3780,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -3842,7 +3791,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -3853,7 +3802,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -3864,7 +3813,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -3872,7 +3821,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -3883,7 +3832,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -3894,7 +3843,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -3905,7 +3854,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -3916,7 +3865,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -3927,7 +3876,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -3938,7 +3887,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -3949,7 +3898,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -3960,7 +3909,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -3971,7 +3920,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -3982,7 +3931,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -3993,7 +3942,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -4004,7 +3953,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -4015,7 +3964,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -4026,7 +3975,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -4037,7 +3986,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -4048,7 +3997,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -4059,7 +4008,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -4070,7 +4019,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -4081,7 +4030,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -4092,7 +4041,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -4103,7 +4052,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -4114,7 +4063,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -4125,7 +4074,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -4136,7 +4085,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -4147,7 +4096,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -4158,7 +4107,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -4169,7 +4118,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -4180,7 +4129,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -4191,7 +4140,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -4202,7 +4151,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -4210,7 +4159,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -4221,7 +4170,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -4232,7 +4181,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -4243,7 +4192,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -4254,7 +4203,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -4265,7 +4214,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -4276,7 +4225,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -4287,7 +4236,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -4295,7 +4244,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -4306,7 +4255,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -4317,7 +4266,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -4328,7 +4277,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -4339,7 +4288,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -4350,7 +4299,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -4358,7 +4307,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4369,7 +4318,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -4380,7 +4329,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -4391,7 +4340,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -4402,7 +4351,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -4413,7 +4362,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -4424,7 +4373,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -4435,7 +4384,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -4446,7 +4395,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -4457,7 +4406,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4468,7 +4417,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -4479,7 +4428,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -4490,7 +4439,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -4501,7 +4450,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -4512,7 +4461,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -4523,7 +4472,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -4534,7 +4483,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -4542,7 +4491,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -4553,7 +4502,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -4564,7 +4513,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -4575,7 +4524,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -4586,7 +4535,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -4597,7 +4546,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -4608,7 +4557,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -4619,7 +4568,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -4630,7 +4579,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -4641,7 +4590,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -4652,7 +4601,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -4663,7 +4612,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -4674,7 +4623,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -4685,7 +4634,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -4696,7 +4645,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -4707,7 +4656,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -4718,7 +4667,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -4729,7 +4678,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -4740,7 +4689,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -4748,7 +4697,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -4756,7 +4705,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -4767,7 +4716,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -4778,7 +4727,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -4789,7 +4738,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -4800,7 +4749,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -4811,7 +4760,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -4822,7 +4771,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -4833,7 +4782,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>297</v>
       </c>
@@ -4841,7 +4790,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -4849,7 +4798,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -4860,7 +4809,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -4871,7 +4820,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>301</v>
       </c>
@@ -4882,7 +4831,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>302</v>
       </c>
@@ -4893,7 +4842,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>303</v>
       </c>
@@ -4904,7 +4853,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>304</v>
       </c>
@@ -4915,7 +4864,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>305</v>
       </c>
@@ -4926,7 +4875,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>306</v>
       </c>
@@ -4937,7 +4886,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>307</v>
       </c>
@@ -4948,7 +4897,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>308</v>
       </c>
@@ -4959,7 +4908,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>309</v>
       </c>
@@ -4970,7 +4919,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>310</v>
       </c>
@@ -4981,7 +4930,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>311</v>
       </c>
@@ -4992,7 +4941,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>312</v>
       </c>
@@ -5003,7 +4952,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>313</v>
       </c>
@@ -5014,7 +4963,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>314</v>
       </c>
@@ -5025,7 +4974,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>315</v>
       </c>
@@ -5036,7 +4985,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>316</v>
       </c>
@@ -5047,7 +4996,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>317</v>
       </c>
@@ -5055,7 +5004,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>318</v>
       </c>
@@ -5066,7 +5015,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>319</v>
       </c>
@@ -5077,7 +5026,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>320</v>
       </c>
@@ -5088,7 +5037,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>321</v>
       </c>
@@ -5099,7 +5048,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>322</v>
       </c>
@@ -5110,7 +5059,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>323</v>
       </c>
@@ -5121,7 +5070,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>324</v>
       </c>
@@ -5132,7 +5081,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>325</v>
       </c>
@@ -5143,7 +5092,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>326</v>
       </c>
@@ -5154,7 +5103,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>327</v>
       </c>
@@ -5165,7 +5114,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>328</v>
       </c>
@@ -5176,7 +5125,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>329</v>
       </c>
@@ -5187,7 +5136,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>330</v>
       </c>
@@ -5198,7 +5147,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>331</v>
       </c>
@@ -5209,7 +5158,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>332</v>
       </c>
@@ -5220,7 +5169,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>333</v>
       </c>
@@ -5231,7 +5180,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>334</v>
       </c>
@@ -5242,7 +5191,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>335</v>
       </c>
@@ -5253,7 +5202,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>336</v>
       </c>
@@ -5264,7 +5213,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>337</v>
       </c>
@@ -5272,7 +5221,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>338</v>
       </c>
@@ -5283,7 +5232,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>339</v>
       </c>
@@ -5291,7 +5240,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>340</v>
       </c>
@@ -5299,7 +5248,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>341</v>
       </c>
@@ -5307,7 +5256,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>342</v>
       </c>
@@ -5318,7 +5267,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>343</v>
       </c>
@@ -5326,7 +5275,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>344</v>
       </c>
@@ -5337,7 +5286,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>345</v>
       </c>
@@ -5345,7 +5294,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>346</v>
       </c>
@@ -5356,7 +5305,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>347</v>
       </c>
@@ -5364,7 +5313,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>348</v>
       </c>
@@ -5375,7 +5324,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>349</v>
       </c>
@@ -5386,7 +5335,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>350</v>
       </c>
@@ -5397,7 +5346,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>351</v>
       </c>
@@ -5408,7 +5357,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>352</v>
       </c>
@@ -5419,7 +5368,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>353</v>
       </c>
@@ -5430,7 +5379,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>354</v>
       </c>
@@ -5441,7 +5390,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>355</v>
       </c>
@@ -5452,7 +5401,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>356</v>
       </c>
@@ -5463,7 +5412,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>357</v>
       </c>
@@ -5474,7 +5423,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>358</v>
       </c>
@@ -5485,7 +5434,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>359</v>
       </c>
@@ -5496,7 +5445,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>360</v>
       </c>
@@ -5504,7 +5453,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>361</v>
       </c>
@@ -5515,7 +5464,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>362</v>
       </c>
@@ -5526,7 +5475,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>363</v>
       </c>
@@ -5537,7 +5486,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>364</v>
       </c>
@@ -5548,7 +5497,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>365</v>
       </c>
@@ -5559,7 +5508,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>366</v>
       </c>
@@ -5570,7 +5519,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>367</v>
       </c>
@@ -5578,7 +5527,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>368</v>
       </c>
@@ -5589,7 +5538,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>369</v>
       </c>
@@ -5600,7 +5549,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>370</v>
       </c>
@@ -5611,7 +5560,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>371</v>
       </c>
@@ -5625,6 +5574,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>